--- a/decompo_deficits.xlsx
+++ b/decompo_deficits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\153002\github\prev\pb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\153002\github\pbinterfipu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88D62A5-DF84-410A-B64E-D3CF86BD5C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65D52C-2167-4FF1-9945-1213C2DC04C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1920,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>-6.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D40" s="1">
         <f>'[4]Etats-Unis'!AA22</f>
